--- a/webprogramming/signupform.xlsx
+++ b/webprogramming/signupform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\webprogramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF854A-18DD-46E0-9E67-C3E07A5BE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A568EE-7FF3-481C-B378-BCF145C3522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,8 +88,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +411,7 @@
   <dimension ref="E4:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,12 +423,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -427,7 +436,7 @@
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
@@ -435,7 +444,7 @@
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
@@ -446,7 +455,7 @@
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
@@ -457,7 +466,7 @@
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
@@ -474,7 +483,7 @@
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
@@ -485,7 +494,7 @@
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
@@ -499,5 +508,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>